--- a/07_cheerio/src/data.xlsx
+++ b/07_cheerio/src/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\learn\learn-nodejs\07_parse\src\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\learn\learn-nodejs\07_cheerio\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA147996-D40D-4E8D-8F27-F0697983F565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4621D4-6006-4702-9539-06F602A52DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23250" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{39437158-D341-4D9A-A29F-9958292631CE}"/>
   </bookViews>
@@ -66,19 +66,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디어 에반 핸슨</t>
-  </si>
-  <si>
-    <t>https://movie.naver.com/movie/bi/mi/basic.naver?code=207940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>영화</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://movie.naver.com/movie/bi/mi/basic.naver?code=191559</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,10 +472,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -512,10 +512,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -525,9 +525,8 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9F9DDCC3-D656-4A96-8F91-3C612B36F7F3}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{BD5FA15B-0B4C-42CF-8376-F49AB6F83D55}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{4E7E9605-6724-4A20-9421-37E7C2A4C8C5}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{9DC25A66-7DD5-4AAD-932B-5E80CC4033C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>